--- a/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
+++ b/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.113238033021743</v>
+        <v>0.886761966978257</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8880327659217701</v>
+        <v>0.11196723407823</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0742627262875324</v>
+        <v>0.9257372737124679</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.39552382576116</v>
+        <v>0.60447617423884</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.045651221911777</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0136054421768707</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0331877839475012</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0600016710596223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.74672547092112</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4124390779977</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.823863636363636</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.435</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0029100291260867</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0250708963376359</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0216284818946216</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.0278871981417032</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0524460257065374</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.150837988826816</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.128491620111732</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0002121080139372</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0039845603573585</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0112359550561798</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.707865168539326</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.7088401697313</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.56193642066447</v>
+      </c>
+      <c r="M31" t="n">
+        <v>21.530030197362</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.49870448486062</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0142665289723165</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.590643274853801</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.415204678362573</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0006423001082837</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.261146496815287</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.101910828025478</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001235483913166</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002174107142857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.11827971055661</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8492231287389</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0027271030363364</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0105778218043611</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0014341534281906</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.664336915063699</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.924842514010916</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.517045454545455</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0075420729159411</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0163058035714286</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.100160330888993</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.832924922005561</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0055865921787709</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.843575418994413</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.002233330267953</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0074552626602655</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.002200004667707</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.50300231260203</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.73696204238828</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.659217877094972</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0024965823650034</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0090782231264093</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.002851288056206</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.351631319014566</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0019254460099587</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0111731843575419</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.35195530726257</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0005813768404297</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0002476680442757</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0009487012987012</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.52772539317289</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makakahi at d/s Eketahuna STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.290606551204044</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.803370786516854</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0072935845828223</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0198645510898938</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0350869927361028</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.447459176860265</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1829591.02</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5498487.02</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
+++ b/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.856040171473565</v>
+        <v>0.419865067573415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.84</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.625</v>
+        <v>1.62</v>
       </c>
       <c r="K2" t="n">
-        <v>0.125492766726944</v>
+        <v>-0.024224426570197</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0443671406249103</v>
+        <v>-0.315556496273424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.282702109313615</v>
+        <v>0.202015241069117</v>
       </c>
       <c r="N2" t="n">
-        <v>7.72263179858116</v>
+        <v>-1.49533497346895</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.886761966978257</v>
+        <v>0.751241111935006</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.62</v>
+        <v>10.66</v>
       </c>
       <c r="K3" t="n">
         <v>0.0596380624092893</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0463911705852505</v>
+        <v>-0.08392728140360541</v>
       </c>
       <c r="M3" t="n">
-        <v>0.168894853052456</v>
+        <v>0.164327949798357</v>
       </c>
       <c r="N3" t="n">
-        <v>0.561563676170333</v>
+        <v>0.5594564953967101</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,17 +751,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.08583242309733401</v>
+        <v>0.497379252487744</v>
       </c>
       <c r="G4" t="n">
         <v>0.101694915254237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.288135593220339</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005610599078341</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0006234661259061</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0011995073891625</v>
+        <v>0.0007134120904243</v>
       </c>
       <c r="N4" t="n">
-        <v>6.23399897593446</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6263185889041299</v>
+        <v>0.813142221001144</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.775862068965517</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="K5" t="n">
-        <v>-13.6322393822394</v>
+        <v>-31.2773549000951</v>
       </c>
       <c r="L5" t="n">
-        <v>-87.7971057566109</v>
+        <v>-82.88065052491071</v>
       </c>
       <c r="M5" t="n">
-        <v>61.7980845969673</v>
+        <v>31.8460873571081</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.93166438327729</v>
+        <v>-8.6401532873191</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.600528931262803</v>
+        <v>0.705168299282404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.411764705882353</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.607843137254902</v>
+        <v>0.648148148148148</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.014575797118544</v>
+        <v>0.0167402554240821</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0004046107222457</v>
+        <v>-0.0012596143391975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.606982013105804</v>
+        <v>0.999943805844589</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H7" t="n">
-        <v>0.203389830508475</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.004</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0008370893812069999</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0003746639176488</v>
+        <v>-0.0011322959234689</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001483984781155</v>
+        <v>-0.0004787024901703</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-20.9272345301757</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.174072312476531</v>
+        <v>0.640891935233007</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.334</v>
+        <v>0.325</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0117067307692308</v>
+        <v>-0.0041347368408073</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0143584405664218</v>
+        <v>-0.0303678484382381</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0483215539096318</v>
+        <v>0.011428124522183</v>
       </c>
       <c r="N8" t="n">
-        <v>3.50500921234454</v>
+        <v>-1.2722267202484</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.11196723407823</v>
+        <v>0.460579325112512</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.785714285714286</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>7.59</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0326116071428572</v>
+        <v>-0.0028913342367708</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0747938869375568</v>
+        <v>-0.0496289896034212</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0099691115385768</v>
+        <v>0.0420547821500421</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.4296654432524</v>
+        <v>-0.0380939952143722</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0940383020109489</v>
+        <v>0.558139752370802</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.796610169491525</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>0.38</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0173840550896472</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.000824546947223</v>
+        <v>-0.0299585500069837</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0500992415067705</v>
+        <v>0.0161949864724241</v>
       </c>
       <c r="N10" t="n">
-        <v>4.57475133938084</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6362457272583391</v>
+        <v>0.413853687854465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.406779661016949</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.338983050847458</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.62</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0112204651666269</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0249273022072175</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.029975778477494</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.80975244623014</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.109935855314351</v>
+        <v>0.699734450471483</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.847457627118644</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.63</v>
+        <v>0.027</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0301030219780219</v>
+        <v>-0.0006911069063386</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0109601567397709</v>
+        <v>-0.0026138296594042</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0580587816818291</v>
+        <v>0.0013857929370149</v>
       </c>
       <c r="N12" t="n">
-        <v>4.77825745682888</v>
+        <v>-2.55965520866183</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.361898296611081</v>
+        <v>0.409469515582027</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.028</v>
+        <v>1.69</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006174978867286</v>
+        <v>0.0256136044880785</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0017721864696128</v>
+        <v>-0.151152020732522</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0027922275452912</v>
+        <v>0.30005429123173</v>
       </c>
       <c r="N13" t="n">
-        <v>2.20534959545949</v>
+        <v>1.51559789870287</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.681140379719046</v>
+        <v>0.0240315509158781</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.949152542372881</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0492250673854448</v>
+        <v>-0.0717847989199623</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2476005752137</v>
+        <v>-0.136746124926466</v>
       </c>
       <c r="M14" t="n">
-        <v>0.198146026949512</v>
+        <v>-0.0150946875824291</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.59079302028657</v>
+        <v>-3.98804438444235</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.046486090921304</v>
+        <v>0.98269420367305</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.885</v>
+        <v>10.44</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.053709277424703</v>
+        <v>0.0527488290398125</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.100771597190216</v>
+        <v>0.0076924520084238</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.08542038782721099</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.84929853711952</v>
+        <v>0.505256983139967</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0363290219758021</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.168067226890756</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9257372737124679</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.863247863247863</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.43</v>
+        <v>0.008</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0299112829845313</v>
+        <v>0.0002038225446428</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0026945452335488</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06740772385509219</v>
+        <v>0.0004555973365077</v>
       </c>
       <c r="N16" t="n">
-        <v>0.286781236668565</v>
+        <v>2.54778180803571</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0051397122524017</v>
+        <v>0.240456327670227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.134453781512605</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H17" t="n">
-        <v>0.168067226890756</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003381944444444</v>
+        <v>7.59882108183079</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-10.0209610206309</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005709297938982</v>
+        <v>30.5912957930397</v>
       </c>
       <c r="N17" t="n">
-        <v>4.22743055555555</v>
+        <v>2.17109173766594</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0010597635282359</v>
+        <v>0.0003379911570115</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.558558558558559</v>
       </c>
       <c r="H18" t="n">
-        <v>0.728813559322034</v>
+        <v>0.441441441441441</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>320</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>30.5641470180305</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.7731788663221</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>48.9194074943368</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9.551295943134541</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0001123956689348</v>
+        <v>0.994639933762049</v>
       </c>
       <c r="G19" t="n">
-        <v>0.612612612612613</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="H19" t="n">
-        <v>0.387387387387387</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0002030294608115</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003713533030984</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.07573652028905</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.784185345637515</v>
+        <v>0.975011243648822</v>
       </c>
       <c r="G20" t="n">
-        <v>0.100840336134454</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H20" t="n">
-        <v>0.134453781512605</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.401</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0117067307692308</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002131919695896</v>
+        <v>-0.0235645968181177</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-2.91938423172837</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.479137453137937</v>
+        <v>0.800943321435599</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0336134453781513</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.899159663865546</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.393</v>
+        <v>7.57</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0057234456106979</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.009589446829801399</v>
+        <v>-0.0059897202656394</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0079496865916207</v>
+        <v>0.0187520278139581</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.0756069433381495</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.60447617423884</v>
+        <v>0.958137675112006</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.555</v>
+        <v>0.4441</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0014433933955271</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0101130319069612</v>
+        <v>-0.0202432930263419</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0144760873775516</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.019105140907044</v>
+        <v>-2.25947774360294</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.327934765348588</v>
+        <v>0.908718731163267</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0023717532467532</v>
+        <v>-0.008553864168618201</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0052598288439932</v>
+        <v>-0.0202572690086364</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0100310121043412</v>
+        <v>0.0015720487056493</v>
       </c>
       <c r="N23" t="n">
-        <v>0.539034828807557</v>
+        <v>-1.20476960121384</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.373090907883982</v>
+        <v>0.06820647262760331</v>
       </c>
       <c r="G24" t="n">
-        <v>0.302521008403361</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.277310924369748</v>
+        <v>0.478991596638655</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.024</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0005531297324583</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0712806438700489</v>
+        <v>0.0011995073891625</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.30470721857648</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.448050647919768</v>
+        <v>0.118426258992634</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.789915966386555</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004969387755102</v>
+        <v>0.0479802955665025</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0107874898159356</v>
+        <v>-0.0155349255971493</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0125423527032961</v>
+        <v>0.128307962529274</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06901927437641731</v>
+        <v>2.94357641512285</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0123007618962595</v>
+        <v>0.001465257297783</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.470588235294118</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.025</v>
+        <v>1.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009521637122002</v>
+        <v>-0.0600822492441517</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002487997342735</v>
+        <v>-0.0948701298701299</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0016549416561387</v>
+        <v>-0.0308053469794856</v>
       </c>
       <c r="N26" t="n">
-        <v>3.80865484880083</v>
+        <v>-3.16222364442904</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.239644044702642</v>
+        <v>0.917760034681937</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.857142857142857</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.6</v>
+        <v>10.44</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0237318201376936</v>
+        <v>0.0185335107205511</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0300626876631038</v>
+        <v>-0.00332347588717</v>
       </c>
       <c r="M27" t="n">
-        <v>0.107123537151423</v>
+        <v>0.0430180964284611</v>
       </c>
       <c r="N27" t="n">
-        <v>1.48323875860585</v>
+        <v>0.177524049047425</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.045651221911777</v>
+        <v>0.0085405620742146</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0136054421768707</v>
+        <v>0.150837988826816</v>
       </c>
       <c r="H28" t="n">
-        <v>0.619047619047619</v>
+        <v>0.11731843575419</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.9</v>
+        <v>0.008</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0331877839475012</v>
+        <v>0.0001248291182501</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0600016710596223</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.0002603542402606</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.74672547092112</v>
+        <v>1.56036397812714</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.4124390779977</v>
+        <v>0.0101715698029252</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H29" t="n">
-        <v>0.823863636363636</v>
+        <v>0.735955056179775</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.435</v>
+        <v>279.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0029100291260867</v>
+        <v>11.688</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0250708963376359</v>
+        <v>3.15084389854857</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0216284818946216</v>
+        <v>21.6676452316925</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0278871981417032</v>
+        <v>4.18175313059034</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0524460257065374</v>
+        <v>0.0072509819560197</v>
       </c>
       <c r="G30" t="n">
-        <v>0.150837988826816</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="H30" t="n">
-        <v>0.128491620111732</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0002121080139372</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0039845603573585</v>
+        <v>0.038750467814177</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0112359550561798</v>
+        <v>0.272189349112426</v>
       </c>
       <c r="H31" t="n">
-        <v>0.707865168539326</v>
+        <v>0.09467455621301769</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>282.5</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>12.7088401697313</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.56193642066447</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>21.530030197362</v>
+        <v>0.0001064550078062</v>
       </c>
       <c r="N31" t="n">
-        <v>4.49870448486062</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0142665289723165</v>
+        <v>0.91819986339987</v>
       </c>
       <c r="G32" t="n">
-        <v>0.590643274853801</v>
+        <v>0.0236686390532544</v>
       </c>
       <c r="H32" t="n">
-        <v>0.415204678362573</v>
+        <v>0.869822485207101</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.401</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0042509698767685</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0109908264247307</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0005356262568081001</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.06009223859566</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0006423001082837</v>
+        <v>0.906702341349478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.261146496815287</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.101910828025478</v>
+        <v>0.511363636363636</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>7.54</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001235483913166</v>
+        <v>0.006502065771961</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0014459867514358</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002174107142857</v>
+        <v>0.0151694443877976</v>
       </c>
       <c r="N33" t="n">
-        <v>4.11827971055661</v>
+        <v>0.08623429405783831</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8492231287389</v>
+        <v>0.949819992466876</v>
       </c>
       <c r="G34" t="n">
-        <v>0.025</v>
+        <v>0.0055865921787709</v>
       </c>
       <c r="H34" t="n">
-        <v>0.86875</v>
+        <v>0.804469273743017</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4105</v>
+        <v>0.44</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0027271030363364</v>
+        <v>-0.0055012806326546</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0105778218043611</v>
+        <v>-0.0107580380044792</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0014341534281906</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.664336915063699</v>
+        <v>-1.25029105287606</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.924842514010916</v>
+        <v>0.878449605627543</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.517045454545455</v>
+        <v>0.642458100558659</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.53</v>
+        <v>0.71</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0075420729159411</v>
+        <v>-0.0033394371203876</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0163058035714286</v>
+        <v>0.0009075646143819</v>
       </c>
       <c r="N35" t="n">
-        <v>0.100160330888993</v>
+        <v>-0.47034325639262</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.832924922005561</v>
+        <v>0.0004905005438321</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0055865921787709</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H36" t="n">
-        <v>0.843575418994413</v>
+        <v>0.346368715083799</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.444</v>
+        <v>0.022</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002233330267953</v>
+        <v>0.0006241455912508001</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0074552626602655</v>
+        <v>0.0003031368718622</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002200004667707</v>
+        <v>0.0009703920899561</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.50300231260203</v>
+        <v>2.83702541477661</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.73696204238828</v>
+        <v>0.226937443324648</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.659217877094972</v>
+        <v>0.810055865921788</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0024965823650034</v>
+        <v>0.0131692732029117</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0090782231264093</v>
+        <v>-0.0183717193451596</v>
       </c>
       <c r="M37" t="n">
-        <v>0.002851288056206</v>
+        <v>0.0443023105634143</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.351631319014566</v>
+        <v>0.779246935083535</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Makakahi at d/s Eketahuna STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0019254460099587</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0111731843575419</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.35195530726257</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0005813768404297</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0002476680442757</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0009487012987012</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.52772539317289</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1829591.02</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5498487.02</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Makakahi at d/s Eketahuna STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.290606551204044</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.803370786516854</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0072935845828223</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0198645510898938</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0350869927361028</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.447459176860265</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1829591.02</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5498487.02</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
+++ b/trend_results/Rivers/MakakahiatdsEketahunaSTP_d60c1a2963.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -142,40 +142,31 @@
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -654,13 +645,13 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.419865067573415</v>
+        <v>0.520341765736159</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.878048780487805</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -669,16 +660,16 @@
         <v>1.62</v>
       </c>
       <c r="K2">
-        <v>-0.024224426570197</v>
+        <v>0.009818548387097</v>
       </c>
       <c r="L2">
-        <v>-0.315556496273424</v>
+        <v>-0.415104697687854</v>
       </c>
       <c r="M2">
-        <v>0.202015241069117</v>
+        <v>0.35881248598945</v>
       </c>
       <c r="N2">
-        <v>-1.49533497346895</v>
+        <v>0.60608323377142</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -693,19 +684,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,31 +716,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.751241111935006</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8947368421052631</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66</v>
+        <v>10.74</v>
       </c>
       <c r="K3">
-        <v>0.0596380624092893</v>
+        <v>0.142989354395604</v>
       </c>
       <c r="L3">
-        <v>-0.08392728140360541</v>
+        <v>-0.0004927813842803</v>
       </c>
       <c r="M3">
-        <v>0.164327949798357</v>
+        <v>0.218672596781964</v>
       </c>
       <c r="N3">
-        <v>0.5594564953967101</v>
+        <v>1.33137201485665</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -764,19 +755,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,13 +787,13 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.497379252487744</v>
+        <v>0.272649868384959</v>
       </c>
       <c r="G4">
-        <v>0.101694915254237</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H4">
-        <v>0.271186440677966</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -814,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0006234661259061</v>
+        <v>-0.000506312906579</v>
       </c>
       <c r="M4">
-        <v>0.0007134120904243</v>
+        <v>0.0010435714285714</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -826,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1829591.02</v>
@@ -835,19 +826,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="s">
         <v>57</v>
-      </c>
-      <c r="W4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.813142221001144</v>
+        <v>0.998570751924911</v>
       </c>
       <c r="G5">
         <v>0.0338983050847458</v>
@@ -879,25 +870,25 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K5">
-        <v>-31.2773549000951</v>
+        <v>-92.4526984126984</v>
       </c>
       <c r="L5">
-        <v>-82.88065052491071</v>
+        <v>-164.363236133417</v>
       </c>
       <c r="M5">
-        <v>31.8460873571081</v>
+        <v>-37.8870491522213</v>
       </c>
       <c r="N5">
-        <v>-8.6401532873191</v>
+        <v>-26.4150566893424</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1829591.02</v>
@@ -906,19 +897,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,28 +929,28 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.705168299282404</v>
+        <v>0.29709066678238</v>
       </c>
       <c r="G6">
-        <v>0.37037037037037</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="H6">
-        <v>0.648148148148148</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0167402554240821</v>
+        <v>0.014048048651123</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0012596143391975</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0014766586759793</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -977,19 +968,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
         <v>57</v>
-      </c>
-      <c r="W6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,31 +1000,31 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.999943805844589</v>
+        <v>0.999999710459573</v>
       </c>
       <c r="G7">
-        <v>0.135593220338983</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H7">
-        <v>0.186440677966102</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
-        <v>-0.0008370893812069999</v>
+        <v>-0.0009662698412698</v>
       </c>
       <c r="L7">
-        <v>-0.0011322959234689</v>
+        <v>-0.001236683995079</v>
       </c>
       <c r="M7">
-        <v>-0.0004787024901703</v>
+        <v>-0.0006911069063386</v>
       </c>
       <c r="N7">
-        <v>-20.9272345301757</v>
+        <v>-32.2089947089947</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
@@ -1048,19 +1039,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
         <v>57</v>
-      </c>
-      <c r="W7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,37 +1071,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.640891935233007</v>
+        <v>0.97432583371837</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.966101694915254</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.325</v>
+        <v>0.301</v>
       </c>
       <c r="K8">
-        <v>-0.0041347368408073</v>
+        <v>-0.0248333953069224</v>
       </c>
       <c r="L8">
-        <v>-0.0303678484382381</v>
+        <v>-0.0419207597027344</v>
       </c>
       <c r="M8">
-        <v>0.011428124522183</v>
+        <v>-0.0052185223414571</v>
       </c>
       <c r="N8">
-        <v>-1.2722267202484</v>
+        <v>-8.25029744416026</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1829591.02</v>
@@ -1119,19 +1110,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="s">
         <v>57</v>
-      </c>
-      <c r="W8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,13 +1142,13 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.460579325112512</v>
+        <v>0.9866119040903381</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.821428571428571</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1166,22 +1157,22 @@
         <v>7.59</v>
       </c>
       <c r="K9">
-        <v>-0.0028913342367708</v>
+        <v>0.0546403912543156</v>
       </c>
       <c r="L9">
-        <v>-0.0496289896034212</v>
+        <v>0.0101277092047157</v>
       </c>
       <c r="M9">
-        <v>0.0420547821500421</v>
+        <v>0.0915591590888948</v>
       </c>
       <c r="N9">
-        <v>-0.0380939952143722</v>
+        <v>0.7198997530212859</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>1829591.02</v>
@@ -1190,16 +1181,16 @@
         <v>5498487.02</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,40 +1207,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.558139752370802</v>
+        <v>0.937522709666702</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.76271186440678</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-0.0201661021017817</v>
       </c>
       <c r="L10">
-        <v>-0.0299585500069837</v>
+        <v>-0.0463190414377029</v>
       </c>
       <c r="M10">
-        <v>0.0161949864724241</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-5.6016950282727</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1829591.02</v>
@@ -1258,19 +1249,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
         <v>56</v>
-      </c>
-      <c r="V10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,37 +1281,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.413853687854465</v>
+        <v>0.9791599582168991</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.779661016949153</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="K11">
-        <v>0.0112204651666269</v>
+        <v>-0.0275944368131868</v>
       </c>
       <c r="L11">
-        <v>-0.0249273022072175</v>
+        <v>-0.0700690131041507</v>
       </c>
       <c r="M11">
-        <v>0.029975778477494</v>
+        <v>-0.0118015390740086</v>
       </c>
       <c r="N11">
-        <v>1.80975244623014</v>
+        <v>-4.84112926547137</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1829591.02</v>
@@ -1329,19 +1320,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" t="s">
         <v>56</v>
-      </c>
-      <c r="V11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,37 +1352,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.699734450471483</v>
+        <v>0.98652821545298</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.610169491525424</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="K12">
-        <v>-0.0006911069063386</v>
+        <v>-0.002962630359212</v>
       </c>
       <c r="L12">
-        <v>-0.0026138296594042</v>
+        <v>-0.0054390650213475</v>
       </c>
       <c r="M12">
-        <v>0.0013857929370149</v>
+        <v>-0.0008170335916953</v>
       </c>
       <c r="N12">
-        <v>-2.55965520866183</v>
+        <v>-11.3947321508156</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1829591.02</v>
@@ -1400,19 +1391,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" t="s">
         <v>56</v>
-      </c>
-      <c r="V12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,19 +1417,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.409469515582027</v>
+        <v>0.936183185303104</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.932203389830508</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1447,22 +1438,22 @@
         <v>1.69</v>
       </c>
       <c r="K13">
-        <v>0.0256136044880785</v>
+        <v>-0.112886332417582</v>
       </c>
       <c r="L13">
-        <v>-0.151152020732522</v>
+        <v>-0.465477153934348</v>
       </c>
       <c r="M13">
-        <v>0.30005429123173</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.51559789870287</v>
+        <v>-6.67966464009363</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1829591.02</v>
@@ -1471,19 +1462,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,37 +1494,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0240315509158781</v>
+        <v>0.0058810438079</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.760869565217391</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="K14">
-        <v>-0.0717847989199623</v>
+        <v>-0.108867603944563</v>
       </c>
       <c r="L14">
-        <v>-0.136746124926466</v>
+        <v>-0.192768804472231</v>
       </c>
       <c r="M14">
-        <v>-0.0150946875824291</v>
+        <v>-0.0411109064956238</v>
       </c>
       <c r="N14">
-        <v>-3.98804438444235</v>
+        <v>-6.25675884738867</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1829591.02</v>
@@ -1542,19 +1533,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
-      </c>
-      <c r="U14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1565,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.98269420367305</v>
+        <v>0.99750942023755</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.837606837606838</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="K15">
-        <v>0.0527488290398125</v>
+        <v>0.06708673469387751</v>
       </c>
       <c r="L15">
-        <v>0.0076924520084238</v>
+        <v>0.028611720574855</v>
       </c>
       <c r="M15">
-        <v>0.08542038782721099</v>
+        <v>0.107216242661448</v>
       </c>
       <c r="N15">
-        <v>0.505256983139967</v>
+        <v>0.640752002806852</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1829591.02</v>
@@ -1613,19 +1604,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" t="s">
         <v>56</v>
-      </c>
-      <c r="V15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,40 +1633,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.0363290219758021</v>
+        <v>0.176714936204597</v>
       </c>
       <c r="G16">
-        <v>0.117647058823529</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H16">
-        <v>0.168067226890756</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K16">
-        <v>0.0002038225446428</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0004555973365077</v>
+        <v>0.0003820168717319</v>
       </c>
       <c r="N16">
-        <v>2.54778180803571</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>1829591.02</v>
@@ -1684,19 +1675,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
         <v>57</v>
-      </c>
-      <c r="W16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,37 +1707,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.240456327670227</v>
+        <v>0.881797810368775</v>
       </c>
       <c r="G17">
         <v>0.0169491525423729</v>
       </c>
       <c r="H17">
-        <v>0.771186440677966</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K17">
-        <v>7.59882108183079</v>
+        <v>-9.5740498034076</v>
       </c>
       <c r="L17">
-        <v>-10.0209610206309</v>
+        <v>-25.6515973556983</v>
       </c>
       <c r="M17">
-        <v>30.5912957930397</v>
+        <v>4.19212861699127</v>
       </c>
       <c r="N17">
-        <v>2.17109173766594</v>
+        <v>-2.99189056356488</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1829591.02</v>
@@ -1755,19 +1746,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,19 +1778,19 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0003379911570115</v>
+        <v>0.0017999263195451</v>
       </c>
       <c r="G18">
-        <v>0.558558558558559</v>
+        <v>0.495495495495495</v>
       </c>
       <c r="H18">
-        <v>0.441441441441441</v>
+        <v>0.504504504504504</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>0.0109622237954195</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1808,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0005918628830109</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1817,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1829591.02</v>
@@ -1826,19 +1817,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" t="s">
         <v>57</v>
-      </c>
-      <c r="W18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,10 +1849,10 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.994639933762049</v>
+        <v>0.9999958979942249</v>
       </c>
       <c r="G19">
-        <v>0.134453781512605</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="H19">
         <v>0.126050420168067</v>
@@ -1873,16 +1864,16 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>-0.0002030294608115</v>
+        <v>-0.0003965798045602</v>
       </c>
       <c r="L19">
-        <v>-0.0003713533030984</v>
+        <v>-0.0005702576112412</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0002268633540372</v>
       </c>
       <c r="N19">
-        <v>-5.07573652028905</v>
+        <v>-9.91449511400651</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -1897,19 +1888,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" t="s">
         <v>57</v>
-      </c>
-      <c r="W19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,37 +1920,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.975011243648822</v>
+        <v>0.998674595853587</v>
       </c>
       <c r="G20">
-        <v>0.0168067226890756</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H20">
-        <v>0.890756302521008</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.401</v>
+        <v>0.375</v>
       </c>
       <c r="K20">
-        <v>-0.0117067307692308</v>
+        <v>-0.0153424796747968</v>
       </c>
       <c r="L20">
-        <v>-0.0235645968181177</v>
+        <v>-0.0271057522138739</v>
       </c>
       <c r="M20">
-        <v>-0.0020068681318681</v>
+        <v>-0.0077077406120229</v>
       </c>
       <c r="N20">
-        <v>-2.91938423172837</v>
+        <v>-4.09132791327914</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1829591.02</v>
@@ -1968,19 +1959,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" t="s">
         <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,31 +1991,31 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.800943321435599</v>
+        <v>0.964430080660707</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.5344827586206899</v>
+        <v>0.525862068965517</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.57</v>
+        <v>7.58</v>
       </c>
       <c r="K21">
-        <v>0.0057234456106979</v>
+        <v>0.0146982486397201</v>
       </c>
       <c r="L21">
-        <v>-0.0059897202656394</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0187520278139581</v>
+        <v>0.0279202209142215</v>
       </c>
       <c r="N21">
-        <v>0.0756069433381495</v>
+        <v>0.193908293400002</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
@@ -2039,16 +2030,16 @@
         <v>5498487.02</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,37 +2059,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.958137675112006</v>
+        <v>0.997867625625026</v>
       </c>
       <c r="G22">
         <v>0.008403361344537799</v>
       </c>
       <c r="H22">
-        <v>0.739495798319328</v>
+        <v>0.672268907563025</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.4441</v>
+        <v>0.41</v>
       </c>
       <c r="K22">
-        <v>-0.0100343406593407</v>
+        <v>-0.0149081632653061</v>
       </c>
       <c r="L22">
-        <v>-0.0202432930263419</v>
+        <v>-0.0235643740074006</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-0.0050016709891094</v>
       </c>
       <c r="N22">
-        <v>-2.25947774360294</v>
+        <v>-3.63613738178198</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1829591.02</v>
@@ -2107,19 +2098,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" t="s">
         <v>56</v>
-      </c>
-      <c r="V22" t="s">
-        <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2130,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.908718731163267</v>
+        <v>0.998893074164767</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.739495798319328</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="K23">
-        <v>-0.008553864168618201</v>
+        <v>-0.0199227272727273</v>
       </c>
       <c r="L23">
-        <v>-0.0202572690086364</v>
+        <v>-0.0284257633219151</v>
       </c>
       <c r="M23">
-        <v>0.0015720487056493</v>
+        <v>-0.009938775510203999</v>
       </c>
       <c r="N23">
-        <v>-1.20476960121384</v>
+        <v>-2.97354138398914</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1829591.02</v>
@@ -2178,19 +2169,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" t="s">
         <v>56</v>
-      </c>
-      <c r="V23" t="s">
-        <v>57</v>
-      </c>
-      <c r="W23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.06820647262760331</v>
+        <v>0.446068729084615</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.478991596638655</v>
+        <v>0.46218487394958</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2225,22 +2216,22 @@
         <v>0.024</v>
       </c>
       <c r="K24">
-        <v>0.0005531297324583</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0006018992502965</v>
       </c>
       <c r="M24">
-        <v>0.0011995073891625</v>
+        <v>0.0006393830923198</v>
       </c>
       <c r="N24">
-        <v>2.30470721857648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>1829591.02</v>
@@ -2249,19 +2240,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" t="s">
         <v>56</v>
-      </c>
-      <c r="V24" t="s">
-        <v>57</v>
-      </c>
-      <c r="W24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,37 +2272,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.118426258992634</v>
+        <v>0.692525836675246</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.890756302521008</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="K25">
-        <v>0.0479802955665025</v>
+        <v>-0.0175882825040129</v>
       </c>
       <c r="L25">
-        <v>-0.0155349255971493</v>
+        <v>-0.067576262562222</v>
       </c>
       <c r="M25">
-        <v>0.128307962529274</v>
+        <v>0.0486285441136666</v>
       </c>
       <c r="N25">
-        <v>2.94357641512285</v>
+        <v>-1.12745400666749</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1829591.02</v>
@@ -2320,19 +2311,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,13 +2343,13 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.001465257297783</v>
+        <v>0.0003523933701909</v>
       </c>
       <c r="G26">
-        <v>0.0142857142857143</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="H26">
-        <v>0.642857142857143</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2367,22 +2358,22 @@
         <v>1.9</v>
       </c>
       <c r="K26">
-        <v>-0.0600822492441517</v>
+        <v>-0.07331883573101371</v>
       </c>
       <c r="L26">
-        <v>-0.0948701298701299</v>
+        <v>-0.113337129313692</v>
       </c>
       <c r="M26">
-        <v>-0.0308053469794856</v>
+        <v>-0.0408195883124594</v>
       </c>
       <c r="N26">
-        <v>-3.16222364442904</v>
+        <v>-3.85888609110599</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1829591.02</v>
@@ -2391,19 +2382,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" t="s">
         <v>55</v>
-      </c>
-      <c r="U26" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,37 +2414,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.917760034681937</v>
+        <v>0.988340203463409</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.807909604519774</v>
+        <v>0.785310734463277</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="K27">
-        <v>0.0185335107205511</v>
+        <v>0.0270122743718682</v>
       </c>
       <c r="L27">
-        <v>-0.00332347588717</v>
+        <v>0.007952820900521899</v>
       </c>
       <c r="M27">
-        <v>0.0430180964284611</v>
+        <v>0.051568059503011</v>
       </c>
       <c r="N27">
-        <v>0.177524049047425</v>
+        <v>0.257996889893679</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27">
         <v>1829591.02</v>
@@ -2462,19 +2453,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" t="s">
         <v>56</v>
-      </c>
-      <c r="V27" t="s">
-        <v>57</v>
-      </c>
-      <c r="W27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,10 +2485,10 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0085405620742146</v>
+        <v>0.0015593108727269</v>
       </c>
       <c r="G28">
-        <v>0.150837988826816</v>
+        <v>0.156424581005587</v>
       </c>
       <c r="H28">
         <v>0.11731843575419</v>
@@ -2509,22 +2500,22 @@
         <v>0.008</v>
       </c>
       <c r="K28">
-        <v>0.0001248291182501</v>
+        <v>0.00019043274244</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0002603542402606</v>
+        <v>0.0003235880398671</v>
       </c>
       <c r="N28">
-        <v>1.56036397812714</v>
+        <v>2.38040928050052</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1829591.02</v>
@@ -2533,19 +2524,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" t="s">
         <v>57</v>
-      </c>
-      <c r="W28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,37 +2556,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.0101715698029252</v>
+        <v>0.103271663469474</v>
       </c>
       <c r="G29">
         <v>0.0112359550561798</v>
       </c>
       <c r="H29">
-        <v>0.735955056179775</v>
+        <v>0.752808988764045</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>279.5</v>
+        <v>266.5</v>
       </c>
       <c r="K29">
-        <v>11.688</v>
+        <v>5.33796127146511</v>
       </c>
       <c r="L29">
-        <v>3.15084389854857</v>
+        <v>-1.43898186826692</v>
       </c>
       <c r="M29">
-        <v>21.6676452316925</v>
+        <v>14.2232318827932</v>
       </c>
       <c r="N29">
-        <v>4.18175313059034</v>
+        <v>2.00298734388935</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q29">
         <v>1829591.02</v>
@@ -2604,19 +2595,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,13 +2627,13 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.0072509819560197</v>
+        <v>0.0025704295653802</v>
       </c>
       <c r="G30">
-        <v>0.56140350877193</v>
+        <v>0.5380116959064331</v>
       </c>
       <c r="H30">
-        <v>0.43859649122807</v>
+        <v>0.461988304093567</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2666,7 +2657,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1829591.02</v>
@@ -2675,19 +2666,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" t="s">
         <v>57</v>
-      </c>
-      <c r="W30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,13 +2698,13 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.038750467814177</v>
+        <v>0.3555272735103</v>
       </c>
       <c r="G31">
-        <v>0.272189349112426</v>
+        <v>0.273743016759777</v>
       </c>
       <c r="H31">
-        <v>0.09467455621301769</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2728,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0001064550078062</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2737,7 +2728,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q31">
         <v>1829591.02</v>
@@ -2746,19 +2737,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" t="s">
         <v>57</v>
-      </c>
-      <c r="W31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2769,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.91819986339987</v>
+        <v>0.992550570046416</v>
       </c>
       <c r="G32">
-        <v>0.0236686390532544</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="H32">
-        <v>0.869822485207101</v>
+        <v>0.865921787709497</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.401</v>
+        <v>0.388</v>
       </c>
       <c r="K32">
-        <v>-0.0042509698767685</v>
+        <v>-0.0077833927350844</v>
       </c>
       <c r="L32">
-        <v>-0.0109908264247307</v>
+        <v>-0.0124327836839669</v>
       </c>
       <c r="M32">
-        <v>0.0005356262568081001</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="N32">
-        <v>-1.06009223859566</v>
+        <v>-2.00602905543414</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1829591.02</v>
@@ -2817,19 +2808,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" t="s">
         <v>57</v>
-      </c>
-      <c r="W32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,37 +2840,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.906702341349478</v>
+        <v>0.622096711519884</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.511363636363636</v>
+        <v>0.465909090909091</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.54</v>
+        <v>7.58</v>
       </c>
       <c r="K33">
-        <v>0.006502065771961</v>
+        <v>0.0010083578198369</v>
       </c>
       <c r="L33">
-        <v>-0.0014459867514358</v>
+        <v>-0.0059229964187433</v>
       </c>
       <c r="M33">
-        <v>0.0151694443877976</v>
+        <v>0.0087894515473793</v>
       </c>
       <c r="N33">
-        <v>0.08623429405783831</v>
+        <v>0.0133028736126244</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1829591.02</v>
@@ -2888,16 +2879,16 @@
         <v>5498487.02</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2908,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.949819992466876</v>
+        <v>0.987746628728026</v>
       </c>
       <c r="G34">
         <v>0.0055865921787709</v>
       </c>
       <c r="H34">
-        <v>0.804469273743017</v>
+        <v>0.759776536312849</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="K34">
-        <v>-0.0055012806326546</v>
+        <v>-0.006921359749448</v>
       </c>
       <c r="L34">
-        <v>-0.0107580380044792</v>
+        <v>-0.0118400675657706</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-0.0016942184582431</v>
       </c>
       <c r="N34">
-        <v>-1.25029105287606</v>
+        <v>-1.64794279748764</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1829591.02</v>
@@ -2956,19 +2947,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" t="s">
         <v>56</v>
-      </c>
-      <c r="V34" t="s">
-        <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,7 +2979,7 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.878449605627543</v>
+        <v>0.982928610564506</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3000,25 +2991,25 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="K35">
-        <v>-0.0033394371203876</v>
+        <v>-0.0058500565291124</v>
       </c>
       <c r="L35">
-        <v>-0.0100343406593407</v>
+        <v>-0.012505671220963</v>
       </c>
       <c r="M35">
-        <v>0.0009075646143819</v>
+        <v>-0.0015365934295472</v>
       </c>
       <c r="N35">
-        <v>-0.47034325639262</v>
+        <v>-0.860302430751837</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1829591.02</v>
@@ -3027,19 +3018,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
+        <v>53</v>
+      </c>
+      <c r="V35" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" t="s">
         <v>56</v>
-      </c>
-      <c r="V35" t="s">
-        <v>57</v>
-      </c>
-      <c r="W35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,13 +3050,13 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0004905005438321</v>
+        <v>0.0011677213855625</v>
       </c>
       <c r="G36">
         <v>0.0111731843575419</v>
       </c>
       <c r="H36">
-        <v>0.346368715083799</v>
+        <v>0.340782122905028</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3074,22 +3065,22 @@
         <v>0.022</v>
       </c>
       <c r="K36">
-        <v>0.0006241455912508001</v>
+        <v>0.0005337961271465</v>
       </c>
       <c r="L36">
-        <v>0.0003031368718622</v>
+        <v>0.0002424395005422</v>
       </c>
       <c r="M36">
-        <v>0.0009703920899561</v>
+        <v>0.0008600863422291</v>
       </c>
       <c r="N36">
-        <v>2.83702541477661</v>
+        <v>2.42634603248414</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1829591.02</v>
@@ -3098,19 +3089,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V36" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" t="s">
         <v>56</v>
-      </c>
-      <c r="V36" t="s">
-        <v>57</v>
-      </c>
-      <c r="W36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,37 +3121,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.226937443324648</v>
+        <v>0.794197441415979</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.810055865921788</v>
+        <v>0.815642458100559</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="K37">
-        <v>0.0131692732029117</v>
+        <v>-0.0183903028455544</v>
       </c>
       <c r="L37">
-        <v>-0.0183717193451596</v>
+        <v>-0.0352664033071376</v>
       </c>
       <c r="M37">
-        <v>0.0443023105634143</v>
+        <v>0.0149817443667002</v>
       </c>
       <c r="N37">
-        <v>0.779246935083535</v>
+        <v>-1.12823943837757</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1829591.02</v>
@@ -3169,19 +3160,19 @@
         <v>5498487.02</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
